--- a/target/test-classes/MedicareTestData/Medicare_Categorylist.xlsx
+++ b/target/test-classes/MedicareTestData/Medicare_Categorylist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>Danger</t>
   </si>
   <si>
-    <t>9 entries</t>
+    <t>8 entries</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
